--- a/DateBase/orders/Nha Thu_2025-7-10.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-10.xlsx
@@ -603,6 +603,9 @@
       <c r="C21" t="str">
         <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -664,7 +667,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>075126111015681085151055151050</v>
+        <v>075126111015681085151055151055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-7-10.xlsx
+++ b/DateBase/orders/Nha Thu_2025-7-10.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,6 +576,9 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <v>3</v>
+      </c>
       <c r="C18" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
@@ -607,9 +610,174 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>334_狗尾草_puppy tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">499_小飞燕浅蓝_delphinium ballkleid
+light blue_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4</v>
+      </c>
+      <c r="C33" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>481_重瓣菟葵粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>771_美洲茶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>5</v>
+      </c>
+      <c r="C40" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L40"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -667,7 +835,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>075126111015681085151055151055</v>
+        <v>07512611101568108515105515105515510510555201010202015301020510</v>
       </c>
     </row>
   </sheetData>
